--- a/data/trans_camb/P25A_1_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25A_1_R2-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,2</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,79</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,71</t>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,89</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 0,04</t>
+          <t>-4,84; -0,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,86; -0,06</t>
+          <t>-5,24; -0,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 15,07</t>
+          <t>-3,21; 1,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 1,45</t>
+          <t>-0,94; 2,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,55</t>
+          <t>0,43; 3,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,56; 24,49</t>
+          <t>-1,1; 1,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 0,28</t>
+          <t>-1,76; 0,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,53; -0,1</t>
+          <t>-1,17; 1,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,61; 16,37</t>
+          <t>-1,82; 0,91</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 1,02</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 0,35</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,26; -0,03</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 1,3</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-0,62; 1,43</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 1,81</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-69,75%</t>
+          <t>-70,47%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-70,52%</t>
+          <t>-69,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>375,4%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>46,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-36,91%</t>
+          <t>167,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1072,93%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-34,13%</t>
+          <t>-41,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-56,9%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>630,81%</t>
+          <t>-11,1%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-1,1%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-35,63%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-57,76%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>8,69%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>23,22%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>75,84%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 26,06</t>
+          <t>-100,0; 21,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 44,96</t>
+          <t>-100,0; 11,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,09; 1375,36</t>
+          <t>-73,96; 220,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-65,17; 266,01</t>
+          <t>-38,34; 216,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-82,47; 120,94</t>
+          <t>12,04; 598,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>335,03; 3560,11</t>
+          <t>-58,37; 243,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-78,1; 31,27</t>
+          <t>-84,62; 98,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-86,97; -5,37</t>
+          <t>-71,17; 326,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>218,5; 1423,0</t>
+          <t>-70,29; 164,28</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-61,27; 162,49</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-74,89; 46,62</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-86,22; -0,85</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-62,08; 145,08</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-31,83; 125,89</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 226,03</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,24</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>-1,78</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-0,53</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,27</t>
+          <t>-1,13; 0,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 0,76</t>
+          <t>-0,87; 0,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 23,96</t>
+          <t>0,14; 2,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 0,77</t>
+          <t>-1,29; 3,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,5</t>
+          <t>0,21; 4,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 47,72</t>
+          <t>-1,27; 0,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 0,29</t>
+          <t>-0,95; 1,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 0,87</t>
+          <t>0,01; 3,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 22,82</t>
+          <t>-3,9; -0,2</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-3,65; 0,86</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 0,38</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-0,57; 0,8</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,36; 2,6</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-2,01; 0,99</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-0,54; 2,49</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-56,69%</t>
+          <t>-44,53%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>23,32%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>665,01%</t>
+          <t>223,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,9%</t>
+          <t>37,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>45,52%</t>
+          <t>435,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1432,89%</t>
+          <t>-16,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-32,48%</t>
+          <t>29,43%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,51%</t>
+          <t>186,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1020,91%</t>
+          <t>-80,33%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-50,18%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-27,76%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>26,82%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>201,24%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-26,72%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>122,82%</t>
         </is>
       </c>
     </row>
@@ -1017,37 +1275,67 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,08; 2092,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-85,93; 366,38</t>
+          <t>-61,48; 386,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,01; 801,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,72; 312,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-81,15; 108,73</t>
+          <t>-72,99; 555,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-60,08; 233,76</t>
+          <t>-28,03; 1339,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 6365,28</t>
+          <t>-100,0; 50,68</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-79,25; 152,64</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-57,21; 247,66</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>21,05; 813,33</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-74,36; 91,7</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-77,92; —</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>2,11</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-3,13</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-1,4</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-1,05</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-0,6</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 7,81</t>
+          <t>1,43; 8,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,6</t>
+          <t>0,0; 6,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 6,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 0,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 0,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,33; 0,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 2,72</t>
+          <t>-5,34; 1,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 1,62</t>
+          <t>-3,36; 5,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 3,18</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 2,78</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-0,73; 4,23</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1180,35 +1528,65 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-76,37%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-67,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-58,52%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-43,89%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>27,35%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>14,57%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-29,64%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>100,36%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>36,03%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>119,44%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1253,7 +1631,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-86,39; inf</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1262,6 +1640,36 @@
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-62,05; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-88,55; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-71,31; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,05</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,27</t>
+          <t>-0,84</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 0,43</t>
+          <t>-1,88; 0,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 0,29</t>
+          <t>-1,85; 0,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,92; 14,14</t>
+          <t>-0,68; 1,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 0,5</t>
+          <t>-0,51; 2,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 0,42</t>
+          <t>0,74; 3,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,64; 22,35</t>
+          <t>-0,97; 0,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 0,3</t>
+          <t>-1,12; 0,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,17</t>
+          <t>-0,25; 2,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,98; 14,48</t>
+          <t>-1,96; 0,2</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 0,75</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,98; 0,35</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,13; 0,21</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,02; 1,59</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 0,88</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 1,65</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-29,33%</t>
+          <t>-25,4%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-38,84%</t>
+          <t>-31,65%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>608,04%</t>
+          <t>70,45%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-20,45%</t>
+          <t>46,93%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-30,72%</t>
+          <t>197,4%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>901,35%</t>
+          <t>-10,45%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-24,49%</t>
+          <t>-24,14%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-34,41%</t>
+          <t>59,98%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>738,47%</t>
+          <t>-44,01%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-9,3%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-17,51%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-27,68%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>64,93%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>82,21%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-78,58; 76,01</t>
+          <t>-79,55; 77,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-84,88; 55,06</t>
+          <t>-80,48; 83,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>70,71; 1854,96</t>
+          <t>-41,92; 298,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-65,48; 72,38</t>
+          <t>-21,05; 157,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-70,73; 68,22</t>
+          <t>43,24; 679,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>322,73; 2536,14</t>
+          <t>-56,58; 85,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-58,59; 37,78</t>
+          <t>-66,41; 62,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-65,36; 24,85</t>
+          <t>-20,61; 257,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>302,31; 1427,09</t>
+          <t>-72,96; 23,79</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-65,47; 117,88</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-55,33; 46,85</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-62,66; 32,57</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-10,66; 182,38</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-36,4; 60,76</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>4,94; 239,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
